--- a/biology/Médecine/Ampullome/Ampullome.xlsx
+++ b/biology/Médecine/Ampullome/Ampullome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ampullome est une tumeur maligne de l'ampoule de Vater. La classification internationale des maladies ICD-11 est 2C16.0.
 </t>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ampullome provoque une obstruction de la voie biliaire et/ou pancréatique. Il en résulte principalement un ictère, fluctuant au début car la tumeur obstructive se nécrose facilement. On peut également noter des signes d'angiocholite et de pancréatite. Enfin, la tumeur peut saigner à bas bruit dans le tube digestif et provoquer une légère anémie ferriprive.
 </t>
@@ -542,7 +556,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biologie: cholestase et anémie ferriprive
 Echographie: dilatation des voies biliaires
@@ -578,7 +594,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement est chirurgical. Selon la taille de la tumeur, il sera curatif ou palliatif. Le traitement curatif est l'opération de Whipple ou duodénopancréatectomie céphalique. Le traitement palliatif consiste à permettre aux sécrétions biliaires d'atteindre le duodénum, soit via une endoprothèse, soit via une dérivation biliodigestive.
 </t>
@@ -609,7 +627,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La survie à 5 ans des opérations curatives est de plus de 50%, ce qui fait de l'ampullome la tumeur maligne avec le meilleur pronostic dans la région duodéno-pancréatique.
  Portail de la médecine                     </t>
